--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_22_39.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_22_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3824634.716546301</v>
+        <v>3822382.636835092</v>
       </c>
     </row>
     <row r="7">
@@ -659,16 +659,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -677,7 +677,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>20.47554896768953</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>143.0659977617366</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247746</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -817,13 +817,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>193.9899955896146</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>163.472338733543</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +896,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>55.45354938846239</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,16 +905,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -956,7 +956,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>334.0293907221857</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247589</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>140.5010290442954</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -1114,13 +1114,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>9.595802811127321</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1139,19 +1139,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>71.68269007697918</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292606</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>13.62534750379522</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247747</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734099341</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1291,10 +1291,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,13 +1303,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983813</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004739</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
-        <v>100.4598437056324</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>26.05155675490774</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206821</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>66.78466399819834</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>75.0888690599473</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576146</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1771,19 +1771,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699814</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>234.1678711281957</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>141.6930519056953</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,10 +2056,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>107.9721668030643</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2087,13 +2087,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,16 +2245,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>18.16423677622376</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>53.11937003877868</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>118.4437570891991</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2716,13 +2716,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>35.02467705292102</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2773,13 +2773,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>246.2025596887052</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710066</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187873</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2950,13 +2950,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>23.6255456814127</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2965,7 +2965,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>79.36266849663015</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3095,7 +3095,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3187,10 +3187,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>146.4649598217087</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>45.66054613217651</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3481,10 +3481,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>140.7215037338436</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3512,10 +3512,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417146</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046952</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>1.166533536434144e-13</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>1.166533536434144e-13</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101218</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T40" t="n">
-        <v>150.8783572808979</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="41">
@@ -3904,10 +3904,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3946,13 +3946,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>275.330023919727</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4135,7 +4135,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4144,13 +4144,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>42.71572132711237</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>67.63081821228899</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1232.150970528559</v>
+        <v>1540.864437266279</v>
       </c>
       <c r="C2" t="n">
-        <v>1232.150970528559</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528559</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528559</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389511</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810549</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520486</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794322</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2735.124556099686</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2382.355900829572</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>2008.890142568492</v>
+        <v>1927.464277330401</v>
       </c>
       <c r="Y2" t="n">
-        <v>1618.75081059268</v>
+        <v>1927.464277330401</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4383,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218336</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>456.9449278938906</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C4" t="n">
-        <v>456.9449278938906</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D4" t="n">
-        <v>456.9449278938906</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E4" t="n">
-        <v>456.9449278938906</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F4" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672846</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1449.828716178286</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1449.828716178286</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1195.144227972399</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W4" t="n">
-        <v>905.7270579354381</v>
+        <v>845.4915543310558</v>
       </c>
       <c r="X4" t="n">
-        <v>677.7375070374208</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="Y4" t="n">
-        <v>456.9449278938906</v>
+        <v>680.3679798527295</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1643.543434242328</v>
+        <v>1628.178203944121</v>
       </c>
       <c r="C5" t="n">
-        <v>1274.580917301916</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>916.3152186951659</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>530.5269660969217</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
-        <v>119.5410613073142</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>3072.075344883005</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V5" t="n">
-        <v>2741.012457539434</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W5" t="n">
-        <v>2403.60903256753</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="X5" t="n">
-        <v>2030.14327430645</v>
+        <v>2014.778044008243</v>
       </c>
       <c r="Y5" t="n">
-        <v>2030.14327430645</v>
+        <v>2014.778044008243</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.543854481107</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.09082519998</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387288</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332733</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601583</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927764</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064387</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4659,37 +4659,37 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.82830229719</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199863</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501175</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>452.6479724696226</v>
+        <v>461.8675266085669</v>
       </c>
       <c r="C7" t="n">
-        <v>452.6479724696226</v>
+        <v>461.8675266085669</v>
       </c>
       <c r="D7" t="n">
-        <v>452.6479724696226</v>
+        <v>311.7508871962312</v>
       </c>
       <c r="E7" t="n">
-        <v>310.7277411117484</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F7" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G7" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915318</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1513.842048484844</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U7" t="n">
-        <v>1224.739181610487</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V7" t="n">
-        <v>970.0546934046005</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="W7" t="n">
-        <v>680.6375233676399</v>
+        <v>1092.298121480354</v>
       </c>
       <c r="X7" t="n">
-        <v>452.6479724696226</v>
+        <v>864.3085705823368</v>
       </c>
       <c r="Y7" t="n">
-        <v>452.6479724696226</v>
+        <v>643.5159914388066</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1555.338782035317</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="C8" t="n">
-        <v>1186.376265094905</v>
+        <v>942.9472709150266</v>
       </c>
       <c r="D8" t="n">
-        <v>828.1105664881545</v>
+        <v>584.6815723082761</v>
       </c>
       <c r="E8" t="n">
-        <v>828.1105664881545</v>
+        <v>198.8933197100319</v>
       </c>
       <c r="F8" t="n">
-        <v>417.124661698547</v>
+        <v>191.9478189608284</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839476</v>
+        <v>180.915772846229</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927148</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K8" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296683</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609169</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3311.842844332608</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3058.312367606444</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>3058.312367606444</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2705.54371233633</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2332.07795407525</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>1941.938622099438</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="9">
@@ -4872,31 +4872,31 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031473</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158148</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>629.1078027362229</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="C10" t="n">
-        <v>460.171619808316</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="D10" t="n">
-        <v>310.0549803959803</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="E10" t="n">
-        <v>310.0549803959803</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279951</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.989501244371</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1514.222885813897</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U10" t="n">
-        <v>1514.222885813897</v>
+        <v>1326.594608541191</v>
       </c>
       <c r="V10" t="n">
-        <v>1259.53839760801</v>
+        <v>1300.279904748355</v>
       </c>
       <c r="W10" t="n">
-        <v>1259.53839760801</v>
+        <v>1010.862734711394</v>
       </c>
       <c r="X10" t="n">
-        <v>1031.548846709993</v>
+        <v>782.8731838133765</v>
       </c>
       <c r="Y10" t="n">
-        <v>810.7562675664626</v>
+        <v>562.0806046698464</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5033,7 +5033,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192599</v>
@@ -5045,16 +5045,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5066,25 +5066,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>280.8495004245706</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403293</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>915.1035305473698</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="C13" t="n">
-        <v>915.1035305473698</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D13" t="n">
-        <v>764.9868911350341</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E13" t="n">
-        <v>617.0737975526409</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>470.1838500547306</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>302.9877507696105</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>161.2759196118086</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5227,22 +5227,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1135.8961096909</v>
+        <v>1068.436853127063</v>
       </c>
       <c r="Y13" t="n">
-        <v>915.1035305473698</v>
+        <v>847.6442739835331</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5267,61 +5267,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273902</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K15" t="n">
-        <v>119.290296770379</v>
+        <v>577.388077746847</v>
       </c>
       <c r="L15" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>633.4413279836774</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557705</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1807.973581098312</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1553.289092892425</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1263.871922855465</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1035.882371957447</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>815.0897928139171</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5507,16 +5507,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332386</v>
@@ -5525,34 +5525,34 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
         <v>3094.515198591809</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.584050252739</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>579.1554649516142</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M18" t="n">
-        <v>1176.533952578166</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N18" t="n">
-        <v>1804.131916132772</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>2356.041646372059</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2356.041646372059</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>948.5505208511906</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C19" t="n">
-        <v>779.6143379232838</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1868.398285759938</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1578.981115722978</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1350.99156482496</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>1130.19898568143</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192616</v>
@@ -5759,10 +5759,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5771,31 +5771,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L21" t="n">
-        <v>577.3880777468471</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M21" t="n">
-        <v>1140.291933891999</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
-        <v>1767.889897446606</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>802.9288273958734</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>633.9926444679666</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D22" t="n">
-        <v>483.8760050556308</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E22" t="n">
-        <v>335.9629114732377</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578601</v>
+        <v>229.5592957321579</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5941,19 +5941,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>984.5772922261132</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5969,40 +5969,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6066,25 +6066,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>114.2598873597757</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>448.1846595309963</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>943.510265746755</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1540.888753373307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
-        <v>1540.888753373307</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>869.6905094135296</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>700.7543264856228</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>550.637687073287</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6181,16 +6181,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1568.745695178747</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1279.328525141787</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1051.338974243769</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1051.338974243769</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6221,31 +6221,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6300,16 +6300,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M27" t="n">
         <v>680.0291294438176</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>734.6461798836013</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C28" t="n">
-        <v>565.7099969556945</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D28" t="n">
-        <v>530.3315352860773</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E28" t="n">
-        <v>382.4184417036842</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F28" t="n">
         <v>235.5284942057738</v>
@@ -6421,13 +6421,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y28" t="n">
-        <v>916.2946447138411</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168618</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,31 +6534,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1964.511902868375</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O30" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>950.7540666811332</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>781.8178837532263</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D31" t="n">
-        <v>631.7012443408905</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6652,19 +6652,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1353.195110654903</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1132.402531511373</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6686,34 +6686,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,22 +6774,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
-        <v>1859.536823237711</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
         <v>1859.536823237711</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>801.6918836311989</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>632.7557007032921</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="G34" t="n">
         <v>317.6151975578602</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>983.3403484614387</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6926,19 +6926,19 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7017,13 +7017,13 @@
         <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239596</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L36" t="n">
-        <v>924.8344286397182</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M36" t="n">
-        <v>924.8344286397182</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7120,25 +7120,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1871.240688199802</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004716</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406472</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192601</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014782</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.89852635594</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="39">
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,28 +7245,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M39" t="n">
-        <v>1103.652278938886</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
-        <v>1731.250242493492</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
         <v>2283.159972732779</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>809.0422355233313</v>
+        <v>513.8536007400697</v>
       </c>
       <c r="C40" t="n">
-        <v>640.1060525954244</v>
+        <v>411.1294017454281</v>
       </c>
       <c r="D40" t="n">
-        <v>489.9894131830887</v>
+        <v>261.0127623330923</v>
       </c>
       <c r="E40" t="n">
-        <v>489.9894131830887</v>
+        <v>261.0127623330922</v>
       </c>
       <c r="F40" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330921</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797741</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7348,34 +7348,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.660164395751</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.584937739949</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.900449534062</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.483279497101</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X40" t="n">
-        <v>1211.483279497101</v>
+        <v>916.2946447138398</v>
       </c>
       <c r="Y40" t="n">
-        <v>990.6907003535711</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="41">
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7488,25 +7488,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>184.7035232280589</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>184.7035232280589</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
         <v>93.81666304797187</v>
@@ -7594,25 +7594,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7634,16 +7634,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
@@ -7658,10 +7658,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7731,13 +7731,13 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N45" t="n">
-        <v>1859.536823237711</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
         <v>1859.536823237711</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>801.6605733532803</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>632.7243904253734</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>632.7243904253734</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="H46" t="n">
         <v>175.9033664000583</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1976.192826467915</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1721.508338262028</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1432.091168225067</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1204.10161732705</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>983.30903818352</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1.570299446029821e-12</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>14.48117232036719</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>150.6207863290899</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>43.26526345294987</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>52.01660326104846</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>6.9224211125171</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,10 +23944,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>144.1654765207637</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,16 +24133,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>127.2568112467075</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>112.4047682534902</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>133.6938862346289</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24604,13 +24604,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>113.5907959652913</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>40.32043864788582</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,13 +24838,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>122.8084169651565</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>146.346986892407</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25075,10 +25075,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>2.150513196503681</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,7 +25087,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>38.13892827624255</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25369,10 +25369,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>145.8014946027474</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25549,7 +25549,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>65.54986409393277</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25558,16 +25558,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856565</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,7 +25600,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>66.52709304639035</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25792,10 +25792,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -25834,13 +25834,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>10.85445046951713</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26023,7 +26023,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26032,13 +26032,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>97.57899151911153</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>218.5536561769551</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>638957.3819900258</v>
+        <v>638957.3819900256</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>638957.3819900256</v>
+        <v>638957.3819900255</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>638957.3819900256</v>
+        <v>638957.3819900255</v>
       </c>
     </row>
     <row r="10">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>638957.3819900258</v>
+        <v>638957.3819900256</v>
       </c>
     </row>
     <row r="14">
@@ -26314,46 +26314,46 @@
         <v>800515.7256176759</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176762</v>
+        <v>800515.7256176757</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176762</v>
+        <v>800515.725617676</v>
       </c>
       <c r="E2" t="n">
         <v>786967.9346977555</v>
       </c>
       <c r="F2" t="n">
-        <v>786967.9346977561</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="G2" t="n">
         <v>786967.9346977558</v>
       </c>
       <c r="H2" t="n">
-        <v>786967.9346977562</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="I2" t="n">
         <v>786967.9346977556</v>
       </c>
       <c r="J2" t="n">
-        <v>786967.9346977556</v>
+        <v>786967.934697756</v>
       </c>
       <c r="K2" t="n">
         <v>786967.9346977556</v>
       </c>
       <c r="L2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="M2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977556</v>
       </c>
       <c r="N2" t="n">
+        <v>786967.934697756</v>
+      </c>
+      <c r="O2" t="n">
         <v>786967.9346977556</v>
       </c>
-      <c r="O2" t="n">
-        <v>786967.9346977557</v>
-      </c>
       <c r="P2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977555</v>
       </c>
     </row>
     <row r="3">
@@ -26363,31 +26363,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073558</v>
+        <v>325412.4618073549</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>5.405192951002392e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>9.332268291473155e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,43 +26415,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93403.78684820645</v>
+        <v>93403.78684820631</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820648</v>
+        <v>93403.78684820631</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820644</v>
+        <v>93403.78684820631</v>
       </c>
       <c r="E4" t="n">
-        <v>14216.75207685509</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="F4" t="n">
-        <v>14216.75207685511</v>
+        <v>14216.75207685512</v>
       </c>
       <c r="G4" t="n">
-        <v>14216.75207685509</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="H4" t="n">
-        <v>14216.75207685511</v>
+        <v>14216.75207685507</v>
       </c>
       <c r="I4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685507</v>
       </c>
       <c r="J4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="K4" t="n">
-        <v>14216.75207685509</v>
+        <v>14216.75207685502</v>
       </c>
       <c r="L4" t="n">
-        <v>14216.75207685507</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="M4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="N4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685486</v>
       </c>
       <c r="O4" t="n">
         <v>14216.75207685505</v>
@@ -26473,7 +26473,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613932</v>
+        <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-729566.7475195157</v>
+        <v>-729566.7475195163</v>
       </c>
       <c r="C6" t="n">
-        <v>599177.9982080765</v>
+        <v>599177.9982080761</v>
       </c>
       <c r="D6" t="n">
-        <v>599177.9982080767</v>
+        <v>599177.9982080762</v>
       </c>
       <c r="E6" t="n">
-        <v>346216.1909896375</v>
+        <v>346181.4530642027</v>
       </c>
       <c r="F6" t="n">
-        <v>671628.6527969938</v>
+        <v>671593.9148715581</v>
       </c>
       <c r="G6" t="n">
-        <v>671628.652796994</v>
+        <v>671593.9148715574</v>
       </c>
       <c r="H6" t="n">
-        <v>671628.6527969938</v>
+        <v>671593.9148715581</v>
       </c>
       <c r="I6" t="n">
-        <v>671628.6527969935</v>
+        <v>671593.9148715578</v>
       </c>
       <c r="J6" t="n">
-        <v>454097.4503997161</v>
+        <v>454062.7124742806</v>
       </c>
       <c r="K6" t="n">
-        <v>671628.6527969935</v>
+        <v>671593.9148715578</v>
       </c>
       <c r="L6" t="n">
-        <v>671628.6527969936</v>
+        <v>671593.9148715581</v>
       </c>
       <c r="M6" t="n">
-        <v>586573.6248614818</v>
+        <v>586538.8869360461</v>
       </c>
       <c r="N6" t="n">
-        <v>671628.6527969935</v>
+        <v>671593.9148715585</v>
       </c>
       <c r="O6" t="n">
-        <v>671628.6527969936</v>
+        <v>671593.9148715577</v>
       </c>
       <c r="P6" t="n">
-        <v>671628.6527969937</v>
+        <v>671593.9148715577</v>
       </c>
     </row>
   </sheetData>
@@ -26741,7 +26741,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26802,7 +26802,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26814,7 +26814,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26823,7 +26823,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.166533536434144e-13</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26963,19 +26963,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483761</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,16 +27379,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27436,16 +27436,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>307.2767095024454</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>226.6651029167324</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,13 +27537,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27552,10 +27552,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27588,22 +27588,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>25.55895368655459</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>62.23731665549411</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27616,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>309.8193423825452</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,13 +27625,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27676,7 +27676,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>15.21157799522729</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>5.932933602273749</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27834,13 +27834,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.9271955254637</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27859,16 +27859,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>222.9250743103413</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>190.292622635825</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,10 +28011,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28023,13 +28023,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,19 +28059,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>89.30918162580956</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>226.0860865689203</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28093,7 +28093,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>8.682195192673604e-13</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28330,7 +28330,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>1.449507180950604e-12</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>9.237055564881302e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28807,13 +28807,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29512,7 +29512,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29815,7 +29815,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -30232,10 +30232,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>-3.147295757344181e-12</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>-1.166533536434144e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>-1.166533536434144e-13</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>-1.166533536434144e-13</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>-1.166533536434144e-13</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>-1.166533536434144e-13</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>-1.166533536434144e-13</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>-1.166533536434144e-13</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>-1.166533536434144e-13</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>-1.166533536434144e-13</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>-1.166533536434144e-13</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>-1.166533536434144e-13</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>-1.166533536434144e-13</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>-1.166533536434144e-13</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>-1.166533536434144e-13</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>-1.166533536434144e-13</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>-1.166533536434144e-13</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>-1.166533536434144e-13</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>-1.166533536434144e-13</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>-1.166533536434144e-13</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>-1.166533536434144e-13</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>-1.166533536434144e-13</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>-1.166533536434144e-13</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>-1.166533536434144e-13</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>-1.166533536434144e-13</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>-1.166533536434144e-13</v>
       </c>
     </row>
     <row r="41">
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681595</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974798</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953986</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003807</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.356529362319</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574989</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095019</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099054</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.994981974641</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781687</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563567</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806945</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451119</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345275</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.6385688179853</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752252</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353155</v>
+        <v>378.512347035315</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138816</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233472</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.647816683792</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970247</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002924</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.536594090554</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238314</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898492</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462214</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430536</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311878</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742015</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098818</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883113</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023085999</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802168</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895879</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.3612387071221</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553034</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.39664015211229</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31841,7 +31841,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31850,7 +31850,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>344.2757660550399</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
@@ -31859,10 +31859,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,40 +32072,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>161.7871425275307</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>193.1175412796314</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>441.0292693655512</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>338.9915131655323</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,46 +32385,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32549,31 +32549,31 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>710.7237876039896</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32786,7 +32786,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>145.7021085929663</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32795,10 +32795,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32807,7 +32807,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
@@ -33020,19 +33020,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>244.0266243181833</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33184,7 +33184,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.544175081759</v>
       </c>
       <c r="L29" t="n">
         <v>867.846407116256</v>
@@ -33266,22 +33266,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>300.5543663814922</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33421,7 +33421,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L32" t="n">
         <v>867.846407116256</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33503,16 +33503,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>322.6999460717714</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33679,7 +33679,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33737,16 +33737,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>518.0009690113193</v>
+        <v>251.886104915025</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33901,7 +33901,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175706</v>
       </c>
       <c r="N38" t="n">
         <v>981.2715114159425</v>
@@ -33968,28 +33968,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>423.9151577118741</v>
       </c>
       <c r="M39" t="n">
-        <v>171.5999003578897</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34208,10 +34208,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>216.857296338707</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34220,7 +34220,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>602.4605829984181</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34229,7 +34229,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34390,7 +34390,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34451,16 +34451,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>320.9147064709964</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687123</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554002</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923317</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302262</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882187</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193714</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037192</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222461</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597696</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609565</v>
+        <v>240.670908060956</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340074</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013289</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004588</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525802</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859622</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127269</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306614</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443194</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226396</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789354</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35498,7 +35498,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
@@ -35507,10 +35507,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>23.94570355317167</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>61.77582919629807</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,31 +35957,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678995</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>302.474889585677</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>199.0097390795108</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>568.5897536819714</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>18.86448192629965</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36443,10 +36443,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36455,7 +36455,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>37.00975247789211</v>
@@ -36668,19 +36668,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>101.892590396165</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36832,7 +36832,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367785</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
@@ -36914,22 +36914,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>161.999986601618</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789211</v>
@@ -37069,7 +37069,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,16 +37151,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>191.358233988438</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,16 +37385,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>386.659256927986</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37549,7 +37549,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902979</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37616,28 +37616,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>285.360777932</v>
       </c>
       <c r="M39" t="n">
-        <v>29.46586643587134</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295325</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998982</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37856,10 +37856,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>90.01966967204031</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37868,7 +37868,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>471.1188709150848</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -37877,7 +37877,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -38038,7 +38038,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,16 +38099,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>189.5729943876631</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
